--- a/output.xlsx
+++ b/output.xlsx
@@ -21,27 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="239">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>fullname</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>image</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="238">
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>8c21a502-0f73-4936-aac2-25c7a6843df9</t>
@@ -128,16 +128,13 @@
     <t>C:\Users\abdel\AppData\Roaming\whatisthis\Images\EGH_vue3.webp</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>product_id</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ProductId</t>
   </si>
   <si>
     <t>271bb486-d84d-44f4-8e1b-5245a41e34fd</t>
@@ -401,10 +398,10 @@
     <t>9c063391-ea5a-42b1-a7b5-0d68e7cee3f8</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>client_id</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ClientId</t>
   </si>
   <si>
     <t>5f921104-55c1-4c23-9c6d-e82aa0cb8a4d</t>
@@ -437,10 +434,10 @@
     <t>c60132aa-ae00-4d4d-965a-0427150d2a60</t>
   </si>
   <si>
-    <t>invoice_id</t>
-  </si>
-  <si>
-    <t>inventory_id</t>
+    <t>InvoiceId</t>
+  </si>
+  <si>
+    <t>InventoryId</t>
   </si>
   <si>
     <t>16ac01ba-93cd-49ba-873a-2c1ff32b0422</t>
@@ -488,7 +485,7 @@
     <t>cfed2326-db3a-4a58-91cb-c50c7bb1e6ab</t>
   </si>
   <si>
-    <t>seller_id</t>
+    <t>SellerId</t>
   </si>
   <si>
     <t>6ff58f3a-443e-4978-accc-2ec1b2bc8bdc</t>
@@ -530,10 +527,10 @@
     <t>75136d73-f793-4c43-97a0-3286a76df462</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>order_id</t>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>OrderId</t>
   </si>
   <si>
     <t>39896b38-326e-45d3-ba3b-35154f2d5f4e</t>
@@ -611,13 +608,13 @@
     <t>e5a88c62-c57a-4d40-8c50-4c68be984b93</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>tva</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tva</t>
   </si>
   <si>
     <t>Docker</t>
@@ -1231,819 +1228,819 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
         <v>92</v>
       </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
       <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
-      </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
         <v>105</v>
       </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" t="s">
-        <v>113</v>
-      </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
         <v>117</v>
       </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
         <v>119</v>
       </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
         <v>123</v>
       </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2064,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2089,13 +2086,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -2103,13 +2100,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -2117,13 +2114,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2131,13 +2128,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -2145,13 +2142,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2159,13 +2156,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -2189,271 +2186,271 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2474,139 +2471,139 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>156</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2627,374 +2624,374 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
-        <v>170</v>
-      </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>177</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
-      </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
         <v>71</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>183</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>185</v>
       </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
-      </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>187</v>
       </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>188</v>
-      </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
         <v>90</v>
-      </c>
-      <c r="F17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
         <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3015,137 +3012,137 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
         <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
         <v>205</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
         <v>207</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>208</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>209</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>210</v>
-      </c>
-      <c r="G4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>213</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" t="s">
         <v>214</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="s">
         <v>216</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>217</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>218</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>219</v>
-      </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -3186,94 +3183,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
         <v>220</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>221</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>222</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>223</v>
-      </c>
-      <c r="G2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
         <v>225</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>227</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>228</v>
-      </c>
-      <c r="G3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
         <v>230</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>231</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" t="s">
         <v>234</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>235</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>236</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>237</v>
-      </c>
-      <c r="G5" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
